--- a/TABLAS PARA EL CASO 3/Tablas de casos CON SEGURIDAD.xlsx
+++ b/TABLAS PARA EL CASO 3/Tablas de casos CON SEGURIDAD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive - Universidad de Los Andes\2016-2\InfraComp\InfraCompCase2\InfraCompCase2\TABLAS PARA EL CASO 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Desktop\WorkSpaces\WorkSpace Infracomp\Workspace Caso 2\TABLAS PARA EL CASO 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -557,7 +557,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1004,7 +1004,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1415,7 +1415,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1821,7 +1821,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2227,7 +2227,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2405,34 +2405,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2642,7 +2642,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3052,7 +3052,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3462,7 +3462,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3504,23 +3504,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3911,7 +3894,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4368,7 +4351,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4815,7 +4798,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4857,23 +4840,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5266,7 +5232,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5723,7 +5689,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6170,7 +6136,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6212,23 +6178,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6262,34 +6211,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>19.535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>19.535</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>19.535</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>19.535</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>19.535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>19.535</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>19.535</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>19.535</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>19.535</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>19.535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6392,34 +6341,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>90.153000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6621,7 +6570,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7116,129 +7065,18 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
 </cs:colorStyle>
@@ -7285,13 +7123,10 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -7362,80 +7197,6 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -7472,7 +7233,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -7509,11 +7270,85 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
-  <a:schemeClr val="accent2"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -7547,438 +7382,6 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="2">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="bg1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:lineWidthScale>3</cs:lineWidthScale>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln cap="rnd">
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="dk1">
-        <a:tint val="95000"/>
-      </a:schemeClr>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="50000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="bg1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln cap="rnd">
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="dk1">
-        <a:tint val="5000"/>
-      </a:schemeClr>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8494,7 +7897,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9010,7 +8413,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9526,7 +8929,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10042,7 +9445,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10558,7 +9961,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11074,7 +10477,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11590,7 +10993,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12106,447 +11509,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="bg1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:lineWidthScale>3</cs:lineWidthScale>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln cap="rnd">
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="dk1">
-        <a:tint val="95000"/>
-      </a:schemeClr>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="50000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="bg1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln cap="rnd">
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="dk1">
-        <a:tint val="5000"/>
-      </a:schemeClr>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13062,7 +12025,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13574,446 +12537,6 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="bg1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:lineWidthScale>3</cs:lineWidthScale>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln cap="rnd">
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="dk1">
-        <a:tint val="95000"/>
-      </a:schemeClr>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="50000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="bg1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln cap="rnd">
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="dk1">
-        <a:tint val="5000"/>
-      </a:schemeClr>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -15565,7 +14088,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15867,7 +14390,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -16094,7 +14617,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -16319,7 +14842,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -16542,7 +15065,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
@@ -16589,7 +15112,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -16818,7 +15341,7 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -17065,7 +15588,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -17287,11 +15810,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -17473,34 +15996,34 @@
         <v>19</v>
       </c>
       <c r="B7" s="4">
-        <v>7</v>
+        <v>90.153000000000006</v>
       </c>
       <c r="C7" s="4">
-        <v>7</v>
+        <v>90.153000000000006</v>
       </c>
       <c r="D7" s="4">
-        <v>7</v>
+        <v>90.153000000000006</v>
       </c>
       <c r="E7" s="4">
-        <v>7</v>
+        <v>90.153000000000006</v>
       </c>
       <c r="F7" s="4">
-        <v>7</v>
+        <v>90.153000000000006</v>
       </c>
       <c r="G7" s="4">
-        <v>7</v>
+        <v>90.153000000000006</v>
       </c>
       <c r="H7" s="4">
-        <v>7</v>
+        <v>90.153000000000006</v>
       </c>
       <c r="I7" s="4">
-        <v>7</v>
+        <v>90.153000000000006</v>
       </c>
       <c r="J7" s="4">
-        <v>7</v>
+        <v>90.153000000000006</v>
       </c>
       <c r="K7" s="4">
-        <v>7</v>
+        <v>90.153000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -17516,7 +16039,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
@@ -17741,10 +16264,10 @@
   <dimension ref="A2:L7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -17924,34 +16447,34 @@
         <v>19</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>19.535</v>
       </c>
       <c r="D7" s="4">
-        <v>1</v>
+        <v>19.535</v>
       </c>
       <c r="E7" s="4">
-        <v>1</v>
+        <v>19.535</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>19.535</v>
       </c>
       <c r="G7" s="4">
-        <v>1</v>
+        <v>19.535</v>
       </c>
       <c r="H7" s="4">
-        <v>1</v>
+        <v>19.535</v>
       </c>
       <c r="I7" s="4">
-        <v>1</v>
+        <v>19.535</v>
       </c>
       <c r="J7" s="4">
-        <v>1</v>
+        <v>19.535</v>
       </c>
       <c r="K7" s="4">
-        <v>1</v>
+        <v>19.535</v>
       </c>
       <c r="L7" s="4">
-        <v>1</v>
+        <v>19.535</v>
       </c>
     </row>
   </sheetData>
@@ -17963,11 +16486,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>

--- a/TABLAS PARA EL CASO 3/Tablas de casos CON SEGURIDAD.xlsx
+++ b/TABLAS PARA EL CASO 3/Tablas de casos CON SEGURIDAD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -6211,34 +6211,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>19.535</c:v>
+                  <c:v>8.218</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.535</c:v>
+                  <c:v>8.218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.535</c:v>
+                  <c:v>8.218</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.535</c:v>
+                  <c:v>8.218</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.535</c:v>
+                  <c:v>8.218</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.535</c:v>
+                  <c:v>8.218</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.535</c:v>
+                  <c:v>8.218</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.535</c:v>
+                  <c:v>8.218</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.535</c:v>
+                  <c:v>8.218</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.535</c:v>
+                  <c:v>8.218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15810,8 +15810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -16263,7 +16263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -16447,34 +16447,34 @@
         <v>19</v>
       </c>
       <c r="C7" s="4">
-        <v>19.535</v>
+        <v>8.218</v>
       </c>
       <c r="D7" s="4">
-        <v>19.535</v>
+        <v>8.218</v>
       </c>
       <c r="E7" s="4">
-        <v>19.535</v>
+        <v>8.218</v>
       </c>
       <c r="F7" s="4">
-        <v>19.535</v>
+        <v>8.218</v>
       </c>
       <c r="G7" s="4">
-        <v>19.535</v>
+        <v>8.218</v>
       </c>
       <c r="H7" s="4">
-        <v>19.535</v>
+        <v>8.218</v>
       </c>
       <c r="I7" s="4">
-        <v>19.535</v>
+        <v>8.218</v>
       </c>
       <c r="J7" s="4">
-        <v>19.535</v>
+        <v>8.218</v>
       </c>
       <c r="K7" s="4">
-        <v>19.535</v>
+        <v>8.218</v>
       </c>
       <c r="L7" s="4">
-        <v>19.535</v>
+        <v>8.218</v>
       </c>
     </row>
   </sheetData>

--- a/TABLAS PARA EL CASO 3/Tablas de casos CON SEGURIDAD.xlsx
+++ b/TABLAS PARA EL CASO 3/Tablas de casos CON SEGURIDAD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Esc 3" sheetId="1" r:id="rId1"/>
@@ -1178,34 +1178,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6276,34 +6276,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>19.056000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15108,8 +15108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15298,34 +15298,34 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>4</v>
+        <v>19.056000000000001</v>
       </c>
       <c r="D8" s="4">
-        <v>4</v>
+        <v>19.056000000000001</v>
       </c>
       <c r="E8" s="4">
-        <v>4</v>
+        <v>19.056000000000001</v>
       </c>
       <c r="F8" s="4">
-        <v>4</v>
+        <v>19.056000000000001</v>
       </c>
       <c r="G8" s="4">
-        <v>4</v>
+        <v>19.056000000000001</v>
       </c>
       <c r="H8" s="4">
-        <v>4</v>
+        <v>19.056000000000001</v>
       </c>
       <c r="I8" s="4">
-        <v>4</v>
+        <v>19.056000000000001</v>
       </c>
       <c r="J8" s="4">
-        <v>4</v>
+        <v>19.056000000000001</v>
       </c>
       <c r="K8" s="4">
-        <v>4</v>
+        <v>19.056000000000001</v>
       </c>
       <c r="L8" s="4">
-        <v>4</v>
+        <v>19.056000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -16263,8 +16263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
